--- a/download/bulkUserCredentialForPracticeExam.xlsx
+++ b/download/bulkUserCredentialForPracticeExam.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>OSbmo283</t>
-  </si>
-  <si>
-    <t>bvqfnwa80</t>
-  </si>
-  <si>
-    <t>v3Tj2$!K</t>
+    <t>PGBfK762</t>
+  </si>
+  <si>
+    <t>fokfqah75</t>
+  </si>
+  <si>
+    <t>uP!N9y#4</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>fKbjOpXO</t>
-  </si>
-  <si>
-    <t>jkTj</t>
+    <t>rqilgaUh</t>
+  </si>
+  <si>
+    <t>ELjT</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>QHqXQ449</t>
-  </si>
-  <si>
-    <t>hhfkpjp53</t>
-  </si>
-  <si>
-    <t>rc4P&amp;9#J</t>
-  </si>
-  <si>
-    <t>mtwFbEar</t>
-  </si>
-  <si>
-    <t>Azzt</t>
+    <t>ZKoJP429</t>
+  </si>
+  <si>
+    <t>xkxhpzg51</t>
+  </si>
+  <si>
+    <t>E%Yse$74</t>
+  </si>
+  <si>
+    <t>xKZdAMDi</t>
+  </si>
+  <si>
+    <t>axSX</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231011253</v>
+        <v>231027165</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231011252</v>
+        <v>231027164</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/download/bulkUserCredentialForPracticeExam.xlsx
+++ b/download/bulkUserCredentialForPracticeExam.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>PGBfK762</t>
-  </si>
-  <si>
-    <t>fokfqah75</t>
-  </si>
-  <si>
-    <t>uP!N9y#4</t>
+    <t>OPVVc194</t>
+  </si>
+  <si>
+    <t>vpngbgw97</t>
+  </si>
+  <si>
+    <t>eW!83qD&amp;</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>rqilgaUh</t>
-  </si>
-  <si>
-    <t>ELjT</t>
+    <t>NCzpKaYz</t>
+  </si>
+  <si>
+    <t>sxoI</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>ZKoJP429</t>
-  </si>
-  <si>
-    <t>xkxhpzg51</t>
-  </si>
-  <si>
-    <t>E%Yse$74</t>
-  </si>
-  <si>
-    <t>xKZdAMDi</t>
-  </si>
-  <si>
-    <t>axSX</t>
+    <t>AFObi434</t>
+  </si>
+  <si>
+    <t>hlzakqg57</t>
+  </si>
+  <si>
+    <t>t$%E8fW5</t>
+  </si>
+  <si>
+    <t>FmSVFzMG</t>
+  </si>
+  <si>
+    <t>dXvA</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231027165</v>
+        <v>231102298</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231027164</v>
+        <v>231102297</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/download/bulkUserCredentialForPracticeExam.xlsx
+++ b/download/bulkUserCredentialForPracticeExam.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>OPVVc194</t>
-  </si>
-  <si>
-    <t>vpngbgw97</t>
-  </si>
-  <si>
-    <t>eW!83qD&amp;</t>
+    <t>QcymZ839</t>
+  </si>
+  <si>
+    <t>dbtjrpl67</t>
+  </si>
+  <si>
+    <t>yWn$2#B5</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>NCzpKaYz</t>
-  </si>
-  <si>
-    <t>sxoI</t>
+    <t>eJVKwVSb</t>
+  </si>
+  <si>
+    <t>wJiu</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>AFObi434</t>
-  </si>
-  <si>
-    <t>hlzakqg57</t>
-  </si>
-  <si>
-    <t>t$%E8fW5</t>
-  </si>
-  <si>
-    <t>FmSVFzMG</t>
-  </si>
-  <si>
-    <t>dXvA</t>
+    <t>Gyvdz314</t>
+  </si>
+  <si>
+    <t>utumbik60</t>
+  </si>
+  <si>
+    <t>Q&amp;wj7B#2</t>
+  </si>
+  <si>
+    <t>bETtBKEq</t>
+  </si>
+  <si>
+    <t>eQHk</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231102298</v>
+        <v>23110950</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231102297</v>
+        <v>23110949</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/download/bulkUserCredentialForPracticeExam.xlsx
+++ b/download/bulkUserCredentialForPracticeExam.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>QcymZ839</t>
-  </si>
-  <si>
-    <t>dbtjrpl67</t>
-  </si>
-  <si>
-    <t>yWn$2#B5</t>
+    <t>JUASu713</t>
+  </si>
+  <si>
+    <t>uigpugd85</t>
+  </si>
+  <si>
+    <t>U8&amp;Nv%t4</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>eJVKwVSb</t>
-  </si>
-  <si>
-    <t>wJiu</t>
+    <t>KbRZTWlq</t>
+  </si>
+  <si>
+    <t>Iqlp</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>Gyvdz314</t>
-  </si>
-  <si>
-    <t>utumbik60</t>
-  </si>
-  <si>
-    <t>Q&amp;wj7B#2</t>
-  </si>
-  <si>
-    <t>bETtBKEq</t>
-  </si>
-  <si>
-    <t>eQHk</t>
+    <t>WMUmm578</t>
+  </si>
+  <si>
+    <t>uidlbnc89</t>
+  </si>
+  <si>
+    <t>D#N8p4d!</t>
+  </si>
+  <si>
+    <t>DdpGcIWk</t>
+  </si>
+  <si>
+    <t>GEff</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23110950</v>
+        <v>23111038</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23110949</v>
+        <v>23111037</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
